--- a/AEAT/out/segovia/final/segovia_data.new.xlsx
+++ b/AEAT/out/segovia/final/segovia_data.new.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">V1</t>
   </si>
@@ -66,16 +66,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5+</t>
+    <t xml:space="preserve">2+</t>
   </si>
   <si>
     <t xml:space="preserve">no_caseros</t>
@@ -732,19 +723,19 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>0.023</v>
+        <v>0.034</v>
       </c>
       <c r="C3" t="n">
-        <v>0.339</v>
+        <v>0.673</v>
       </c>
       <c r="D3" t="n">
-        <v>0.402</v>
+        <v>0.655</v>
       </c>
       <c r="E3" t="n">
-        <v>10982.149</v>
+        <v>11940.908</v>
       </c>
       <c r="F3" t="n">
-        <v>5491.075</v>
+        <v>4883.748</v>
       </c>
       <c r="G3" t="n">
         <v>2016</v>
@@ -755,19 +746,19 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>0.006</v>
+        <v>0.922</v>
       </c>
       <c r="C4" t="n">
-        <v>0.136</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>12674.681</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4224.894</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>2016</v>
@@ -775,56 +766,56 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.002</v>
+        <v>0.061</v>
       </c>
       <c r="C5" t="n">
-        <v>0.062</v>
+        <v>0.33</v>
       </c>
       <c r="D5" t="n">
-        <v>0.058</v>
+        <v>0.33</v>
       </c>
       <c r="E5" t="n">
-        <v>17173.885</v>
+        <v>4267.723</v>
       </c>
       <c r="F5" t="n">
-        <v>4293.471</v>
+        <v>4267.723</v>
       </c>
       <c r="G5" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>0.003</v>
+        <v>0.043</v>
       </c>
       <c r="C6" t="n">
-        <v>0.136</v>
+        <v>0.67</v>
       </c>
       <c r="D6" t="n">
-        <v>0.072</v>
+        <v>0.67</v>
       </c>
       <c r="E6" t="n">
-        <v>13953.822</v>
+        <v>12471.925</v>
       </c>
       <c r="F6" t="n">
-        <v>2207.119</v>
+        <v>4154.534</v>
       </c>
       <c r="G6" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" t="n">
-        <v>0.922</v>
+        <v>0.896</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -839,144 +830,6 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4267.723</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4267.723</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.321</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.297</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7874.916</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3937.458</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.089</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.101</v>
-      </c>
-      <c r="E10" t="n">
-        <v>14380.971</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4793.657</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.097</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.117</v>
-      </c>
-      <c r="E11" t="n">
-        <v>20677.339</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5169.335</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.163</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="E12" t="n">
-        <v>46250.141</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3548.153</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.896</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -996,19 +849,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
@@ -1016,7 +869,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" t="n">
         <v>53325.131420569</v>
@@ -1036,7 +889,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="n">
         <v>14985.2536106612</v>
@@ -1056,7 +909,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" t="n">
         <v>32727.7950090128</v>
@@ -1076,7 +929,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
         <v>57104.6555098131</v>
@@ -1096,7 +949,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
         <v>19044.4754900073</v>
@@ -1116,7 +969,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
         <v>35451.3725725621</v>
@@ -1150,16 +1003,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -1167,7 +1020,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
         <v>0.0218384397817407</v>
@@ -1184,7 +1037,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n">
         <v>0.0872067142935372</v>
@@ -1201,7 +1054,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" t="n">
         <v>0.268183686433285</v>
@@ -1218,7 +1071,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" t="n">
         <v>0.622771159491437</v>
@@ -1235,7 +1088,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" t="n">
         <v>0.0330049273863555</v>
@@ -1252,7 +1105,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" t="n">
         <v>0.128320077005787</v>
@@ -1269,7 +1122,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" t="n">
         <v>0.178406853612663</v>
@@ -1286,7 +1139,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" t="n">
         <v>0.660268141995194</v>
@@ -1317,16 +1170,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -1334,13 +1187,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" t="n">
         <v>1497.98464478947</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
         <v>0.0776950547987029</v>
@@ -1351,13 +1204,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="n">
         <v>4297.00148573817</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
         <v>0.222869952015734</v>
@@ -1368,13 +1221,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" t="n">
         <v>13485.3226184724</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
         <v>0.699434993185563</v>
@@ -1385,13 +1238,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
         <v>2182.71517619001</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0.103770808034135</v>
@@ -1402,13 +1255,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
         <v>4242.93020926878</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.201717705109286</v>
@@ -1419,13 +1272,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
         <v>14608.3546145414</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
         <v>0.694511486856579</v>
